--- a/biology/Histoire de la zoologie et de la botanique/Manuel_Ruedi/Manuel_Ruedi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Manuel_Ruedi/Manuel_Ruedi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manuel Ruedi, né en 1962 à La Chaux-de-Fonds, est un zoologiste suisse. Il étudie les musaraignes d'Asie du Sud-Est dans le début des années 1990, puis l'évolution et la systématique des chauves-souris.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manuel Ruedi nait à La Chaux-de-Fonds le 12 mai 1962. Il obtient un diplôme en sciences naturelles à l'Université de Lausanne en 1986, puis un master ès sciences en biologie en 1988. Il devient docteur en zoologie à l'Université de Lausanne en 1994 en soutenant sa thèse « Zoogéographie et taxonomie des Crocidurinés d'Asie du Sud-Est (Insectivora, Mammalia) », menée sous la direction de Peter Vogel. De 1995 à 1996, il effectue un travail postdoctoral sous la direction de James L. Patton au Museum of Vertebrate Zoology de l'Université de Californie à Berkeley. En 1997, il reçoit une bourse de recherche de la Suisse et revient sur Lausanne, où il est directeur de recherche à l'Institut d'Écologie[1]. Il rejoint le Muséum d'histoire naturelle de Genève en 1999, où il est conservateur en mammalogie et ornithologie depuis 2001.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manuel Ruedi nait à La Chaux-de-Fonds le 12 mai 1962. Il obtient un diplôme en sciences naturelles à l'Université de Lausanne en 1986, puis un master ès sciences en biologie en 1988. Il devient docteur en zoologie à l'Université de Lausanne en 1994 en soutenant sa thèse « Zoogéographie et taxonomie des Crocidurinés d'Asie du Sud-Est (Insectivora, Mammalia) », menée sous la direction de Peter Vogel. De 1995 à 1996, il effectue un travail postdoctoral sous la direction de James L. Patton au Museum of Vertebrate Zoology de l'Université de Californie à Berkeley. En 1997, il reçoit une bourse de recherche de la Suisse et revient sur Lausanne, où il est directeur de recherche à l'Institut d'Écologie. Il rejoint le Muséum d'histoire naturelle de Genève en 1999, où il est conservateur en mammalogie et ornithologie depuis 2001.
 La recherche de Manuel Ruedi se concentre sur les reconstructions phylogénétiques et les analyses biogéographiques, notamment basées sur des données moléculaires. Il a également développé plusieurs programmes de recherche sur la génétique des populations et la systématique des chauves-souris. Il a notamment décrit plusieurs taxons de musaraignes et de chauves-souris :
 Famille
-Cistugidae Lack, Roehrs, Stanley, Ruedi &amp; Van Den Bussche[2]
+Cistugidae Lack, Roehrs, Stanley, Ruedi &amp; Van Den Bussche
 Genres
 Paremballonura Goodman, Puechmaille, Friedli-Weyeneth, Gerlach, Ruedi, Schoeman, Stanley &amp; Teeling, 2012
-Cassistrellus Ruedi, Eger, Lim &amp; Csorba, 2017[3]
+Cassistrellus Ruedi, Eger, Lim &amp; Csorba, 2017
 Espèces
 Cassistrellus yokdonensis Ruedi, Eger, Lim &amp; Csorba, 2017
 Coleura kibomalandy Goodman, Puechmaille, Friedli-Weyeneth, Gerlach, Ruedi, Schoeman, Stanley &amp; Teeling, 2012
@@ -565,7 +579,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Manuel Ruedi est l'auteur de nombreuses publications, dont :
 Années 2020
